--- a/data/trans_dic/P64D$noloshace_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P64D$noloshace_2023-Habitat-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.03296130398566614</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.05185425755136474</v>
+        <v>0.05185425755136475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04109635804629076</v>
+        <v>0.04109635804629075</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01675861974553836</v>
+        <v>0.01578713214906438</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03209156951662625</v>
+        <v>0.03219397606086935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02878059400760058</v>
+        <v>0.02828260675957914</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06056102563473095</v>
+        <v>0.05914584160983752</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07771124231494968</v>
+        <v>0.07851059834311402</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0605600180777591</v>
+        <v>0.05985949129160685</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01629196052578882</v>
+        <v>0.01478309546726884</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02157552495933151</v>
+        <v>0.01995035016691046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02020676412858346</v>
+        <v>0.02123421509142278</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05021420976323052</v>
+        <v>0.04837020648808523</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05088233300480889</v>
+        <v>0.05070504815057798</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04307044043344858</v>
+        <v>0.04305998888460484</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.03140503204447699</v>
+        <v>0.03140503204447698</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02669765571159852</v>
+        <v>0.02669765571159853</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02930511048920008</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01572530110363429</v>
+        <v>0.01653346986982597</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01333816339258103</v>
+        <v>0.01528070083530548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01748520047669608</v>
+        <v>0.01807457482994003</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05378176861035718</v>
+        <v>0.05452856472003016</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04862537159769605</v>
+        <v>0.05437683336939795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04466714581977357</v>
+        <v>0.04420178163960593</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.08172759455066025</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05629804420787941</v>
+        <v>0.05629804420787942</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.06991741969276863</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05638902398034924</v>
+        <v>0.05695007026174765</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04020107230161715</v>
+        <v>0.03930456900123676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05444999997102237</v>
+        <v>0.05343803911043024</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1129329041487717</v>
+        <v>0.1133740373460822</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0815525737828728</v>
+        <v>0.07894522525100992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09015772165196287</v>
+        <v>0.08873817040068266</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.04183278929682718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04321887430455593</v>
+        <v>0.04321887430455594</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03392743544253445</v>
+        <v>0.03463674093350086</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03316177841410457</v>
+        <v>0.03345011247294787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03648901087498931</v>
+        <v>0.03579282339505137</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05563770970534094</v>
+        <v>0.05600292724096193</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05225509522088002</v>
+        <v>0.05265460849604842</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0510207694452686</v>
+        <v>0.05114058933342541</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6128</v>
+        <v>5773</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8874</v>
+        <v>8902</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18483</v>
+        <v>18163</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22146</v>
+        <v>21629</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21489</v>
+        <v>21710</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38892</v>
+        <v>38442</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10115</v>
+        <v>9178</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9522</v>
+        <v>8804</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21463</v>
+        <v>22554</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31176</v>
+        <v>30031</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22455</v>
+        <v>22377</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45748</v>
+        <v>45737</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6485</v>
+        <v>6818</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4430</v>
+        <v>5075</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13018</v>
+        <v>13457</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22179</v>
+        <v>22487</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16150</v>
+        <v>18060</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33255</v>
+        <v>32909</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28717</v>
+        <v>29003</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17753</v>
+        <v>17357</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>51775</v>
+        <v>50813</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>57513</v>
+        <v>57737</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36015</v>
+        <v>34863</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>85729</v>
+        <v>84379</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>64740</v>
+        <v>66094</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>49463</v>
+        <v>49893</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>124054</v>
+        <v>121687</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>106167</v>
+        <v>106864</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>77943</v>
+        <v>78539</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>173459</v>
+        <v>173866</v>
       </c>
     </row>
     <row r="24">
